--- a/MSI2.PROJ2/best-models/wykresy/model4-kernel1-7-7-kernel2-2-2-.xlsx
+++ b/MSI2.PROJ2/best-models/wykresy/model4-kernel1-7-7-kernel2-2-2-.xlsx
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="model4-kernel1-7-7-kernel2-2-2-" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -618,38 +615,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1427,7 +1393,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1440,7 +1406,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pl-PL"/>
+                  <a:rPr lang="pl-PL" sz="1050"/>
                   <a:t>Liczba epok</a:t>
                 </a:r>
               </a:p>
@@ -1460,7 +1426,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1498,7 +1464,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1546,7 +1512,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1559,7 +1525,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pl-PL"/>
+                  <a:rPr lang="pl-PL" sz="1050"/>
                   <a:t>Precyzja</a:t>
                 </a:r>
               </a:p>
@@ -1579,7 +1545,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1617,7 +1583,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1644,38 +1610,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1727,38 +1661,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2536,7 +2439,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2549,14 +2452,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pl-PL"/>
+                  <a:rPr lang="pl-PL" sz="1050"/>
                   <a:t>Licba</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:rPr lang="pl-PL" sz="1050" baseline="0"/>
                   <a:t> epok</a:t>
                 </a:r>
-                <a:endParaRPr lang="pl-PL"/>
+                <a:endParaRPr lang="pl-PL" sz="1050"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2574,7 +2477,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2612,7 +2515,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2660,7 +2563,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2673,7 +2576,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pl-PL"/>
+                  <a:rPr lang="pl-PL" sz="1050"/>
                   <a:t>Loss</a:t>
                 </a:r>
               </a:p>
@@ -2693,7 +2596,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2731,7 +2634,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2758,38 +2661,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3944,15 +3815,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>113025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3975,16 +3846,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>585788</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>481013</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>36825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4006,753 +3877,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="model1-kernel-7-7-pool-2-2-drop"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>test_acc</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>test_loss</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>train_acc</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>train_loss</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>val_acc</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>val_loss</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>0</v>
-          </cell>
-          <cell r="B2">
-            <v>0</v>
-          </cell>
-          <cell r="C2">
-            <v>10</v>
-          </cell>
-          <cell r="E2">
-            <v>0</v>
-          </cell>
-          <cell r="F2">
-            <v>10</v>
-          </cell>
-          <cell r="G2">
-            <v>0</v>
-          </cell>
-          <cell r="H2">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>1</v>
-          </cell>
-          <cell r="B3">
-            <v>0.98640000000000005</v>
-          </cell>
-          <cell r="C3">
-            <v>4.2900000000000001E-2</v>
-          </cell>
-          <cell r="E3">
-            <v>0.93830000000000002</v>
-          </cell>
-          <cell r="F3">
-            <v>0.19889999999999999</v>
-          </cell>
-          <cell r="G3">
-            <v>0.98229999999999995</v>
-          </cell>
-          <cell r="H3">
-            <v>5.7099999999999998E-2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>2</v>
-          </cell>
-          <cell r="B4">
-            <v>0.98780000000000001</v>
-          </cell>
-          <cell r="C4">
-            <v>3.8399999999999997E-2</v>
-          </cell>
-          <cell r="E4">
-            <v>0.98429999999999995</v>
-          </cell>
-          <cell r="F4">
-            <v>5.0599999999999999E-2</v>
-          </cell>
-          <cell r="G4">
-            <v>0.98619999999999997</v>
-          </cell>
-          <cell r="H4">
-            <v>4.7199999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>3</v>
-          </cell>
-          <cell r="B5">
-            <v>0.98919999999999997</v>
-          </cell>
-          <cell r="C5">
-            <v>3.1800000000000002E-2</v>
-          </cell>
-          <cell r="E5">
-            <v>0.9899</v>
-          </cell>
-          <cell r="F5">
-            <v>3.32E-2</v>
-          </cell>
-          <cell r="G5">
-            <v>0.98829999999999996</v>
-          </cell>
-          <cell r="H5">
-            <v>4.0300000000000002E-2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>4</v>
-          </cell>
-          <cell r="B6">
-            <v>0.98929999999999996</v>
-          </cell>
-          <cell r="C6">
-            <v>3.4200000000000001E-2</v>
-          </cell>
-          <cell r="E6">
-            <v>0.99299999999999999</v>
-          </cell>
-          <cell r="F6">
-            <v>2.3699999999999999E-2</v>
-          </cell>
-          <cell r="G6">
-            <v>0.98680000000000001</v>
-          </cell>
-          <cell r="H6">
-            <v>4.58E-2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>5</v>
-          </cell>
-          <cell r="B7">
-            <v>0.99009999999999998</v>
-          </cell>
-          <cell r="C7">
-            <v>3.3799999999999997E-2</v>
-          </cell>
-          <cell r="E7">
-            <v>0.99439999999999995</v>
-          </cell>
-          <cell r="F7">
-            <v>1.7600000000000001E-2</v>
-          </cell>
-          <cell r="G7">
-            <v>0.98770000000000002</v>
-          </cell>
-          <cell r="H7">
-            <v>4.48E-2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>6</v>
-          </cell>
-          <cell r="B8">
-            <v>0.99080000000000001</v>
-          </cell>
-          <cell r="C8">
-            <v>3.1099999999999999E-2</v>
-          </cell>
-          <cell r="E8">
-            <v>0.99580000000000002</v>
-          </cell>
-          <cell r="F8">
-            <v>1.2999999999999999E-2</v>
-          </cell>
-          <cell r="G8">
-            <v>0.98839999999999995</v>
-          </cell>
-          <cell r="H8">
-            <v>4.2700000000000002E-2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>7</v>
-          </cell>
-          <cell r="B9">
-            <v>0.99099999999999999</v>
-          </cell>
-          <cell r="C9">
-            <v>3.0499999999999999E-2</v>
-          </cell>
-          <cell r="E9">
-            <v>0.99680000000000002</v>
-          </cell>
-          <cell r="F9">
-            <v>0.01</v>
-          </cell>
-          <cell r="G9">
-            <v>0.99019999999999997</v>
-          </cell>
-          <cell r="H9">
-            <v>3.5299999999999998E-2</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>8</v>
-          </cell>
-          <cell r="B10">
-            <v>0.99160000000000004</v>
-          </cell>
-          <cell r="C10">
-            <v>3.1099999999999999E-2</v>
-          </cell>
-          <cell r="E10">
-            <v>0.99760000000000004</v>
-          </cell>
-          <cell r="F10">
-            <v>7.4000000000000003E-3</v>
-          </cell>
-          <cell r="G10">
-            <v>0.9899</v>
-          </cell>
-          <cell r="H10">
-            <v>3.95E-2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>9</v>
-          </cell>
-          <cell r="B11">
-            <v>0.99099999999999999</v>
-          </cell>
-          <cell r="C11">
-            <v>3.5099999999999999E-2</v>
-          </cell>
-          <cell r="E11">
-            <v>0.99829999999999997</v>
-          </cell>
-          <cell r="F11">
-            <v>5.3E-3</v>
-          </cell>
-          <cell r="G11">
-            <v>0.98919999999999997</v>
-          </cell>
-          <cell r="H11">
-            <v>4.8899999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>10</v>
-          </cell>
-          <cell r="B12">
-            <v>0.99160000000000004</v>
-          </cell>
-          <cell r="C12">
-            <v>3.1600000000000003E-2</v>
-          </cell>
-          <cell r="E12">
-            <v>0.99829999999999997</v>
-          </cell>
-          <cell r="F12">
-            <v>5.3E-3</v>
-          </cell>
-          <cell r="G12">
-            <v>0.98929999999999996</v>
-          </cell>
-          <cell r="H12">
-            <v>4.48E-2</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>11</v>
-          </cell>
-          <cell r="B13">
-            <v>0.9919</v>
-          </cell>
-          <cell r="C13">
-            <v>3.4700000000000002E-2</v>
-          </cell>
-          <cell r="E13">
-            <v>0.99919999999999998</v>
-          </cell>
-          <cell r="F13">
-            <v>2.8999999999999998E-3</v>
-          </cell>
-          <cell r="G13">
-            <v>0.98939999999999995</v>
-          </cell>
-          <cell r="H13">
-            <v>5.0799999999999998E-2</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>12</v>
-          </cell>
-          <cell r="B14">
-            <v>0.99129999999999996</v>
-          </cell>
-          <cell r="C14">
-            <v>3.85E-2</v>
-          </cell>
-          <cell r="E14">
-            <v>0.99909999999999999</v>
-          </cell>
-          <cell r="F14">
-            <v>2.5999999999999999E-3</v>
-          </cell>
-          <cell r="G14">
-            <v>0.98960000000000004</v>
-          </cell>
-          <cell r="H14">
-            <v>5.1200000000000002E-2</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>13</v>
-          </cell>
-          <cell r="B15">
-            <v>0.9919</v>
-          </cell>
-          <cell r="C15">
-            <v>3.7600000000000001E-2</v>
-          </cell>
-          <cell r="E15">
-            <v>0.99909999999999999</v>
-          </cell>
-          <cell r="F15">
-            <v>2.5000000000000001E-3</v>
-          </cell>
-          <cell r="G15">
-            <v>0.99019999999999997</v>
-          </cell>
-          <cell r="H15">
-            <v>4.9799999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>14</v>
-          </cell>
-          <cell r="B16">
-            <v>0.99170000000000003</v>
-          </cell>
-          <cell r="C16">
-            <v>3.8199999999999998E-2</v>
-          </cell>
-          <cell r="E16">
-            <v>0.99929999999999997</v>
-          </cell>
-          <cell r="F16">
-            <v>2.2000000000000001E-3</v>
-          </cell>
-          <cell r="G16">
-            <v>0.99009999999999998</v>
-          </cell>
-          <cell r="H16">
-            <v>5.04E-2</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>15</v>
-          </cell>
-          <cell r="B17">
-            <v>0.99070000000000003</v>
-          </cell>
-          <cell r="C17">
-            <v>4.6399999999999997E-2</v>
-          </cell>
-          <cell r="E17">
-            <v>0.99960000000000004</v>
-          </cell>
-          <cell r="F17">
-            <v>1.4E-3</v>
-          </cell>
-          <cell r="G17">
-            <v>0.98919999999999997</v>
-          </cell>
-          <cell r="H17">
-            <v>5.1999999999999998E-2</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>16</v>
-          </cell>
-          <cell r="B18">
-            <v>0.99170000000000003</v>
-          </cell>
-          <cell r="C18">
-            <v>4.2000000000000003E-2</v>
-          </cell>
-          <cell r="E18">
-            <v>0.99970000000000003</v>
-          </cell>
-          <cell r="F18">
-            <v>1E-3</v>
-          </cell>
-          <cell r="G18">
-            <v>0.99019999999999997</v>
-          </cell>
-          <cell r="H18">
-            <v>5.21E-2</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>17</v>
-          </cell>
-          <cell r="B19">
-            <v>0.99319999999999997</v>
-          </cell>
-          <cell r="C19">
-            <v>3.8100000000000002E-2</v>
-          </cell>
-          <cell r="E19">
-            <v>0.99990000000000001</v>
-          </cell>
-          <cell r="F19">
-            <v>5.0000000000000001E-4</v>
-          </cell>
-          <cell r="G19">
-            <v>0.99029999999999996</v>
-          </cell>
-          <cell r="H19">
-            <v>5.2999999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>18</v>
-          </cell>
-          <cell r="B20">
-            <v>0.99239999999999995</v>
-          </cell>
-          <cell r="C20">
-            <v>3.7999999999999999E-2</v>
-          </cell>
-          <cell r="E20">
-            <v>0.99980000000000002</v>
-          </cell>
-          <cell r="F20">
-            <v>8.0000000000000004E-4</v>
-          </cell>
-          <cell r="G20">
-            <v>0.99070000000000003</v>
-          </cell>
-          <cell r="H20">
-            <v>5.3100000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>19</v>
-          </cell>
-          <cell r="B21">
-            <v>0.99260000000000004</v>
-          </cell>
-          <cell r="C21">
-            <v>3.78E-2</v>
-          </cell>
-          <cell r="E21">
-            <v>0.99970000000000003</v>
-          </cell>
-          <cell r="F21">
-            <v>8.9999999999999998E-4</v>
-          </cell>
-          <cell r="G21">
-            <v>0.99060000000000004</v>
-          </cell>
-          <cell r="H21">
-            <v>5.1700000000000003E-2</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>20</v>
-          </cell>
-          <cell r="B22">
-            <v>0.99250000000000005</v>
-          </cell>
-          <cell r="C22">
-            <v>3.9E-2</v>
-          </cell>
-          <cell r="E22">
-            <v>0.99970000000000003</v>
-          </cell>
-          <cell r="F22">
-            <v>8.0000000000000004E-4</v>
-          </cell>
-          <cell r="G22">
-            <v>0.99099999999999999</v>
-          </cell>
-          <cell r="H22">
-            <v>5.3699999999999998E-2</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>21</v>
-          </cell>
-          <cell r="B23">
-            <v>0.99250000000000005</v>
-          </cell>
-          <cell r="C23">
-            <v>4.3099999999999999E-2</v>
-          </cell>
-          <cell r="E23">
-            <v>0.99990000000000001</v>
-          </cell>
-          <cell r="F23">
-            <v>5.0000000000000001E-4</v>
-          </cell>
-          <cell r="G23">
-            <v>0.99070000000000003</v>
-          </cell>
-          <cell r="H23">
-            <v>5.8299999999999998E-2</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>22</v>
-          </cell>
-          <cell r="B24">
-            <v>0.99329999999999996</v>
-          </cell>
-          <cell r="C24">
-            <v>3.7999999999999999E-2</v>
-          </cell>
-          <cell r="E24">
-            <v>0.99990000000000001</v>
-          </cell>
-          <cell r="F24">
-            <v>2.0000000000000001E-4</v>
-          </cell>
-          <cell r="G24">
-            <v>0.99050000000000005</v>
-          </cell>
-          <cell r="H24">
-            <v>5.9499999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>23</v>
-          </cell>
-          <cell r="B25">
-            <v>0.9929</v>
-          </cell>
-          <cell r="C25">
-            <v>4.1099999999999998E-2</v>
-          </cell>
-          <cell r="E25">
-            <v>1</v>
-          </cell>
-          <cell r="F25">
-            <v>1E-4</v>
-          </cell>
-          <cell r="G25">
-            <v>0.99060000000000004</v>
-          </cell>
-          <cell r="H25">
-            <v>5.96E-2</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>24</v>
-          </cell>
-          <cell r="B26">
-            <v>0.99239999999999995</v>
-          </cell>
-          <cell r="C26">
-            <v>4.0500000000000001E-2</v>
-          </cell>
-          <cell r="E26">
-            <v>1</v>
-          </cell>
-          <cell r="F26">
-            <v>2.0000000000000001E-4</v>
-          </cell>
-          <cell r="G26">
-            <v>0.99070000000000003</v>
-          </cell>
-          <cell r="H26">
-            <v>5.79E-2</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>25</v>
-          </cell>
-          <cell r="B27">
-            <v>0.99260000000000004</v>
-          </cell>
-          <cell r="C27">
-            <v>4.3299999999999998E-2</v>
-          </cell>
-          <cell r="E27">
-            <v>0.99990000000000001</v>
-          </cell>
-          <cell r="F27">
-            <v>2.9999999999999997E-4</v>
-          </cell>
-          <cell r="G27">
-            <v>0.99080000000000001</v>
-          </cell>
-          <cell r="H27">
-            <v>6.3700000000000007E-2</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>26</v>
-          </cell>
-          <cell r="B28">
-            <v>0.99309999999999998</v>
-          </cell>
-          <cell r="C28">
-            <v>4.2200000000000001E-2</v>
-          </cell>
-          <cell r="E28">
-            <v>0.99970000000000003</v>
-          </cell>
-          <cell r="F28">
-            <v>6.9999999999999999E-4</v>
-          </cell>
-          <cell r="G28">
-            <v>0.99050000000000005</v>
-          </cell>
-          <cell r="H28">
-            <v>6.08E-2</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>27</v>
-          </cell>
-          <cell r="B29">
-            <v>0.9919</v>
-          </cell>
-          <cell r="C29">
-            <v>3.9699999999999999E-2</v>
-          </cell>
-          <cell r="E29">
-            <v>0.99990000000000001</v>
-          </cell>
-          <cell r="F29">
-            <v>5.0000000000000001E-4</v>
-          </cell>
-          <cell r="G29">
-            <v>0.99050000000000005</v>
-          </cell>
-          <cell r="H29">
-            <v>5.91E-2</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>28</v>
-          </cell>
-          <cell r="B30">
-            <v>0.99270000000000003</v>
-          </cell>
-          <cell r="C30">
-            <v>4.1200000000000001E-2</v>
-          </cell>
-          <cell r="E30">
-            <v>1</v>
-          </cell>
-          <cell r="F30">
-            <v>1E-4</v>
-          </cell>
-          <cell r="G30">
-            <v>0.99070000000000003</v>
-          </cell>
-          <cell r="H30">
-            <v>5.8999999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>29</v>
-          </cell>
-          <cell r="B31">
-            <v>0.99250000000000005</v>
-          </cell>
-          <cell r="C31">
-            <v>4.4499999999999998E-2</v>
-          </cell>
-          <cell r="E31">
-            <v>1</v>
-          </cell>
-          <cell r="F31">
-            <v>2.0000000000000001E-4</v>
-          </cell>
-          <cell r="G31">
-            <v>0.99009999999999998</v>
-          </cell>
-          <cell r="H31">
-            <v>6.5699999999999995E-2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>30</v>
-          </cell>
-          <cell r="B32">
-            <v>0.99319999999999997</v>
-          </cell>
-          <cell r="C32">
-            <v>4.1700000000000001E-2</v>
-          </cell>
-          <cell r="E32">
-            <v>0.99990000000000001</v>
-          </cell>
-          <cell r="F32">
-            <v>2.0000000000000001E-4</v>
-          </cell>
-          <cell r="G32">
-            <v>0.99070000000000003</v>
-          </cell>
-          <cell r="H32">
-            <v>6.2300000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5020,8 +4144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView tabSelected="1" topLeftCell="H24" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16:Z28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
